--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N2">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O2">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P2">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q2">
-        <v>20.32304103852778</v>
+        <v>10.01665123405278</v>
       </c>
       <c r="R2">
-        <v>182.90736934675</v>
+        <v>90.149861106475</v>
       </c>
       <c r="S2">
-        <v>0.07484457599537278</v>
+        <v>0.03839695019198483</v>
       </c>
       <c r="T2">
-        <v>0.07484457599537278</v>
+        <v>0.03839695019198482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q3">
         <v>145.6825898889361</v>
@@ -632,10 +632,10 @@
         <v>1311.143309000425</v>
       </c>
       <c r="S3">
-        <v>0.5365118167834528</v>
+        <v>0.5584468318900997</v>
       </c>
       <c r="T3">
-        <v>0.5365118167834527</v>
+        <v>0.5584468318900997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q4">
         <v>96.38628932197223</v>
@@ -694,10 +694,10 @@
         <v>867.47660389775</v>
       </c>
       <c r="S4">
-        <v>0.3549661166551937</v>
+        <v>0.3694787273519347</v>
       </c>
       <c r="T4">
-        <v>0.3549661166551936</v>
+        <v>0.3694787273519346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N5">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O5">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P5">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q5">
-        <v>0.7082821896055556</v>
+        <v>0.3490922276405556</v>
       </c>
       <c r="R5">
-        <v>6.37453970645</v>
+        <v>3.141830048765</v>
       </c>
       <c r="S5">
-        <v>0.002608422630530801</v>
+        <v>0.001338179453783388</v>
       </c>
       <c r="T5">
-        <v>0.0026084226305308</v>
+        <v>0.001338179453783387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,22 +806,22 @@
         <v>102.158321</v>
       </c>
       <c r="O6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q6">
-        <v>5.077211799077223</v>
+        <v>5.077211799077222</v>
       </c>
       <c r="R6">
         <v>45.694906191695</v>
       </c>
       <c r="S6">
-        <v>0.01869807592378736</v>
+        <v>0.01946253732989847</v>
       </c>
       <c r="T6">
-        <v>0.01869807592378735</v>
+        <v>0.01946253732989847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q7">
         <v>3.359177001094445</v>
@@ -880,10 +880,10 @@
         <v>30.23259300985</v>
       </c>
       <c r="S7">
-        <v>0.01237099201166276</v>
+        <v>0.01287677378229906</v>
       </c>
       <c r="T7">
-        <v>0.01237099201166276</v>
+        <v>0.01287677378229906</v>
       </c>
     </row>
   </sheetData>
